--- a/trunk/Documentation/Game Documents/Contracts.xlsx
+++ b/trunk/Documentation/Game Documents/Contracts.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="21075" windowHeight="9780"/>
@@ -48,9 +48,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>staitions</t>
-  </si>
-  <si>
     <t>stars</t>
   </si>
   <si>
@@ -100,13 +97,16 @@
   </si>
   <si>
     <t>ME</t>
+  </si>
+  <si>
+    <t>stations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +149,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -227,6 +232,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -261,6 +267,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,14 +443,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
@@ -452,7 +459,7 @@
     <col min="19" max="19" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -490,124 +497,124 @@
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S2" s="1">
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
       </c>
       <c r="R3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S3" s="1">
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="s">
         <v>9</v>
       </c>
       <c r="R4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S4" s="1">
         <v>2</v>
       </c>
       <c r="T4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S5" s="1">
         <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="1">
         <v>4</v>
       </c>
       <c r="T6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q7" t="s">
         <v>9</v>
       </c>
       <c r="R7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q8" t="s">
         <v>9</v>
       </c>
       <c r="R8" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="S8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q9" t="s">
         <v>9</v>
       </c>
       <c r="R9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S9" s="1">
         <v>7</v>
@@ -615,41 +622,41 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S1:T1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
